--- a/data/trans_dic/IP16A04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A04-Habitat-trans_dic.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,22 +632,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,22 +657,22 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,48</t>
+          <t>0; 26,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,13</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,08</t>
+          <t>0; 30,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,99</t>
+          <t>0; 14,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>0; 18,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,41</t>
+          <t>0; 20,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,0</t>
+          <t>0; 9,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,64</t>
+          <t>0; 14,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,9</t>
+          <t>0; 13,49</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,22 +852,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -877,22 +877,22 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,96%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,51</t>
+          <t>0,0; 8,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,89</t>
+          <t>0,0; 6,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>0,0; 8,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,3</t>
+          <t>0,0; 7,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>0; 2,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,12</t>
+          <t>0,0; 8,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,53</t>
+          <t>0,0; 5,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,65</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,8</t>
+          <t>0,52; 4,9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -992,12 +992,12 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0,0; 11,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>0,0; 6,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>0; 3,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>0; 4,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>0,0; 8,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0; 3,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>0,0; 5,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>0,0; 4,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>0; 1,76</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,12 +1072,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1087,32 +1087,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,96%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,01</t>
+          <t>0,0; 10,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,19</t>
+          <t>0,0; 7,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>0; 3,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>0,0; 16,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,56</t>
+          <t>0; 2,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>0,0; 9,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,65</t>
+          <t>0,0; 8,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,5</t>
+          <t>0,0; 3,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,76</t>
+          <t>0,0; 4,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A04-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -805,7 +805,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,15</t>
+          <t>0,0; 13,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,4; 20,53</t>
+          <t>2,46; 20,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 12,07</t>
+          <t>1,29; 12,92</t>
         </is>
       </c>
     </row>
@@ -905,22 +905,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,48</t>
+          <t>0,0; 8,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,13</t>
+          <t>0,0; 6,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,08</t>
+          <t>0,0; 7,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,99</t>
+          <t>0,0; 9,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -930,22 +930,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,41</t>
+          <t>0,0; 8,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,0</t>
+          <t>0,0; 5,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,64</t>
+          <t>0,0; 3,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,9</t>
+          <t>0,52; 5,18</t>
         </is>
       </c>
     </row>
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,01</t>
+          <t>0,0; 9,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,19</t>
+          <t>0,0; 6,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,56</t>
+          <t>0,0; 7,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,65</t>
+          <t>0,0; 4,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,5</t>
+          <t>0,0; 3,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1125,12 +1125,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,51</t>
+          <t>0,0; 10,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,89</t>
+          <t>0,0; 6,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,3</t>
+          <t>0,0; 15,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1150,22 +1150,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,12</t>
+          <t>0,0; 9,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,53</t>
+          <t>0,0; 7,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,65</t>
+          <t>0,0; 3,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,8</t>
+          <t>0,0; 4,82</t>
         </is>
       </c>
     </row>
@@ -1235,22 +1235,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,59</t>
+          <t>0,47; 4,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,97</t>
+          <t>0,31; 2,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,24</t>
+          <t>0,0; 3,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,15</t>
+          <t>0,0; 4,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1260,22 +1260,29 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,9; 5,42</t>
+          <t>0,92; 4,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,69</t>
+          <t>0,51; 2,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,65</t>
+          <t>0,17; 1,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,13</t>
+          <t>0,81; 3,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A04-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,16</t>
+          <t>0,0; 13,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 20,67</t>
+          <t>2,44; 21,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -835,14 +835,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 12,92</t>
+          <t>1,46; 13,61</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,22 +905,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,4</t>
+          <t>0,0; 8,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,18</t>
+          <t>0,0; 6,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,17</t>
+          <t>0,0; 6,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,67</t>
+          <t>0,0; 8,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -930,29 +930,29 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,92</t>
+          <t>0,0; 8,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,72</t>
+          <t>0,0; 5,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,08</t>
+          <t>0,0; 3,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,18</t>
+          <t>0,52; 5,13</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,62</t>
+          <t>0,0; 9,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,47</t>
+          <t>0,0; 6,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,28</t>
+          <t>0,0; 7,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,66</t>
+          <t>0,0; 5,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,94</t>
+          <t>0,0; 4,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1125,12 +1125,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,42</t>
+          <t>0,0; 10,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,65</t>
+          <t>0,0; 6,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,16</t>
+          <t>0,0; 13,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1150,22 +1150,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,36</t>
+          <t>0,0; 9,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,32</t>
+          <t>0,0; 7,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,23</t>
+          <t>0,0; 3,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,82</t>
+          <t>0,0; 5,58</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,04</t>
+          <t>0,47; 3,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,6</t>
+          <t>0,32; 2,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,13</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,05</t>
+          <t>0,0; 4,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,7</t>
+          <t>0,0; 1,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,87</t>
+          <t>0,85; 5,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,99</t>
+          <t>0,53; 3,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,67</t>
+          <t>0,17; 1,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,19</t>
+          <t>0,73; 3,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A04-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,28%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0; 3,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>0; 3,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>1,87; 16,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>0; 4,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>0; 3,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0,0; 13,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>0; 2,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>0; 1,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>1,07; 10,26</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -752,37 +752,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>1,96%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>0,0; 7,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>0; 2,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,83</t>
+          <t>0,0; 8,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>0,0; 8,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>0,0; 6,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,44; 21,22</t>
+          <t>0,0; 8,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>0,0; 5,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 13,61</t>
+          <t>0,52; 4,9</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,39</t>
+          <t>0; 4,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,51</t>
+          <t>0,0; 8,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,52</t>
+          <t>0; 3,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,68</t>
+          <t>0,0; 11,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>0,0; 6,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,8</t>
+          <t>0; 3,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,34</t>
+          <t>0,0; 5,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,29</t>
+          <t>0,0; 4,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,13</t>
+          <t>0; 1,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,27 +962,27 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -992,17 +992,17 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,96%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,67</t>
+          <t>0,0; 16,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,26</t>
+          <t>0; 2,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>0,0; 9,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>0,0; 10,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,95</t>
+          <t>0,0; 7,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>0; 3,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,64</t>
+          <t>0,0; 8,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,58</t>
+          <t>0,0; 3,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,76</t>
+          <t>0,0; 4,8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,74%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,49</t>
+          <t>0,0; 4,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,49</t>
+          <t>0,0; 1,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>0,9; 5,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,07</t>
+          <t>0,47; 4,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>0,32; 2,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,15</t>
+          <t>0,0; 3,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,91</t>
+          <t>0,51; 2,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,11</t>
+          <t>0,16; 1,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,58</t>
+          <t>0,79; 3,13</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,52%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,98%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,92%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,15%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,34%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>2,48%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1,34%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,66%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>1,74%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,47; 3,96</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,32; 2,63</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,43</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,08</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,67</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 5,05</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 3,01</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 1,64</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 3,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
